--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\texworks\zadanie 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buci16\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="report" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="platy_hracov" localSheetId="0">Sheet1!$A$1:$G$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$382</definedName>
+    <definedName name="platy_hracov" localSheetId="0">data!$A$1:$G$382</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,6 +26,172 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+priemerny plat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+najvacsi plat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+najmensi plat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+modus platov
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+median platov
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+priemerny plat</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="406">
   <si>
     <t>Team</t>
   </si>
@@ -65,150 +233,87 @@
     <t>Acevedo, Juan</t>
   </si>
   <si>
-    <t>900,000</t>
-  </si>
-  <si>
     <t>Pitcher</t>
   </si>
   <si>
     <t>Anderson, Jason</t>
   </si>
   <si>
-    <t>300,000</t>
-  </si>
-  <si>
     <t>Clemens, Roger</t>
   </si>
   <si>
-    <t>10,100,000</t>
-  </si>
-  <si>
     <t>Contreras, Jose</t>
   </si>
   <si>
-    <t>5,500,000</t>
-  </si>
-  <si>
     <t>Flaherty, John</t>
   </si>
   <si>
-    <t>750,000</t>
-  </si>
-  <si>
     <t>Catcher</t>
   </si>
   <si>
     <t>Giambi, Jason</t>
   </si>
   <si>
-    <t>11,428,571</t>
-  </si>
-  <si>
     <t>First Baseman</t>
   </si>
   <si>
     <t>Hammond, Chris</t>
   </si>
   <si>
-    <t>2,200,000</t>
-  </si>
-  <si>
     <t>Hitchcock, Sterling</t>
   </si>
   <si>
-    <t>6,000,000</t>
-  </si>
-  <si>
     <t>Jeter, Derek</t>
   </si>
   <si>
-    <t>15,600,000</t>
-  </si>
-  <si>
     <t>Shortstop</t>
   </si>
   <si>
     <t>Johnson, Nick</t>
   </si>
   <si>
-    <t>364,100</t>
-  </si>
-  <si>
     <t>Karsay, Steve</t>
   </si>
   <si>
-    <t>5,000,000</t>
-  </si>
-  <si>
     <t>Latham, Chris</t>
   </si>
   <si>
-    <t>400,000</t>
-  </si>
-  <si>
     <t>Outfielder</t>
   </si>
   <si>
     <t>Liever, Jon</t>
   </si>
   <si>
-    <t>550,000</t>
-  </si>
-  <si>
     <t>Matsui, Hideki</t>
   </si>
   <si>
     <t>Mondesi, Raul</t>
   </si>
   <si>
-    <t>13,000,000</t>
-  </si>
-  <si>
     <t>Mussina, Mike</t>
   </si>
   <si>
-    <t>12,000,000</t>
-  </si>
-  <si>
     <t>Osuna, Antonio</t>
   </si>
   <si>
-    <t>2,400,000</t>
-  </si>
-  <si>
     <t>Pettitte, Andy</t>
   </si>
   <si>
-    <t>11,500,000</t>
-  </si>
-  <si>
     <t>Posada, Jorge</t>
   </si>
   <si>
-    <t>8,000,000</t>
-  </si>
-  <si>
     <t>Rivera, Mariano</t>
   </si>
   <si>
-    <t>10,500,000</t>
-  </si>
-  <si>
     <t>Soriano, Alfonso</t>
   </si>
   <si>
-    <t>800,000</t>
-  </si>
-  <si>
     <t>Second Baseman</t>
   </si>
   <si>
     <t>Trammell, Bubba</t>
   </si>
   <si>
-    <t>2,500,000</t>
-  </si>
-  <si>
     <t>Ventura, Robin</t>
   </si>
   <si>
@@ -218,183 +323,102 @@
     <t>Weaver, Jeff</t>
   </si>
   <si>
-    <t>4,150,000</t>
-  </si>
-  <si>
     <t>Wells, David</t>
   </si>
   <si>
-    <t>3,250,000</t>
-  </si>
-  <si>
     <t>Williams, Bernie</t>
   </si>
   <si>
-    <t>12,357,143</t>
-  </si>
-  <si>
     <t>Wilson, Enrique</t>
   </si>
   <si>
-    <t>700,000</t>
-  </si>
-  <si>
     <t>Zeile, Todd</t>
   </si>
   <si>
-    <t>1,500,000</t>
-  </si>
-  <si>
     <t>Anaheim Angels</t>
   </si>
   <si>
     <t>Anderson, Garret</t>
   </si>
   <si>
-    <t>5,350,000</t>
-  </si>
-  <si>
     <t>Appier, Kevin</t>
   </si>
   <si>
     <t>Callaway, Mickey</t>
   </si>
   <si>
-    <t>302,500</t>
-  </si>
-  <si>
     <t>Donnelly, Brendan</t>
   </si>
   <si>
-    <t>325,000</t>
-  </si>
-  <si>
     <t>Eckstein, David</t>
   </si>
   <si>
-    <t>425,000</t>
-  </si>
-  <si>
     <t>Erstad, Darin</t>
   </si>
   <si>
-    <t>7,250,000</t>
-  </si>
-  <si>
     <t>Fullmer, Brad</t>
   </si>
   <si>
-    <t>1,000,000</t>
-  </si>
-  <si>
     <t>Gil, Benji</t>
   </si>
   <si>
-    <t>725,000</t>
-  </si>
-  <si>
     <t>Glaus, Troy</t>
   </si>
   <si>
     <t>Kennedy, Adam</t>
   </si>
   <si>
-    <t>2,270,000</t>
-  </si>
-  <si>
     <t>Lackey, John</t>
   </si>
   <si>
-    <t>315,000</t>
-  </si>
-  <si>
     <t>Molina, Benjie</t>
   </si>
   <si>
-    <t>1,425,000</t>
-  </si>
-  <si>
     <t>Molina, Jose</t>
   </si>
   <si>
-    <t>320,000</t>
-  </si>
-  <si>
     <t>Ortiz, Ramon</t>
   </si>
   <si>
-    <t>2,266,667</t>
-  </si>
-  <si>
     <t>Owens, Eric</t>
   </si>
   <si>
-    <t>925,000</t>
-  </si>
-  <si>
     <t>Percival, Troy</t>
   </si>
   <si>
-    <t>7,833,333</t>
-  </si>
-  <si>
     <t>Ramirez, Julio</t>
   </si>
   <si>
     <t>Rodriquez, Francisco</t>
   </si>
   <si>
-    <t>312,500</t>
-  </si>
-  <si>
     <t>Salmon, Tim</t>
   </si>
   <si>
-    <t>9,900,000</t>
-  </si>
-  <si>
     <t>Schoeneweis, Scott</t>
   </si>
   <si>
     <t>Sele, Aaron</t>
   </si>
   <si>
-    <t>8,166,667</t>
-  </si>
-  <si>
     <t>Shields, Scot</t>
   </si>
   <si>
-    <t>305,000</t>
-  </si>
-  <si>
     <t>Spiezio, Scott</t>
   </si>
   <si>
-    <t>4,250,000</t>
-  </si>
-  <si>
     <t>Washburn, Jarrod</t>
   </si>
   <si>
-    <t>3,875,000</t>
-  </si>
-  <si>
     <t>Weber, Ben</t>
   </si>
   <si>
-    <t>375,000</t>
-  </si>
-  <si>
     <t>Wise, Matt</t>
   </si>
   <si>
     <t>Wooten, Shawn</t>
   </si>
   <si>
-    <t>337,500</t>
-  </si>
-  <si>
     <t>Boston Red Sox</t>
   </si>
   <si>
@@ -404,141 +428,78 @@
     <t>Damon, Johnny</t>
   </si>
   <si>
-    <t>7,500,000</t>
-  </si>
-  <si>
     <t>Embree, Alan</t>
   </si>
   <si>
-    <t>3,000,000</t>
-  </si>
-  <si>
     <t>Fossum, Casey</t>
   </si>
   <si>
-    <t>324,500</t>
-  </si>
-  <si>
     <t>Fox, Chad</t>
   </si>
   <si>
-    <t>500,000</t>
-  </si>
-  <si>
     <t>Garciaparra, Nomar</t>
   </si>
   <si>
-    <t>11,000,000</t>
-  </si>
-  <si>
     <t>Giambi, Jeremy</t>
   </si>
   <si>
-    <t>2,000,000</t>
-  </si>
-  <si>
     <t>Gonzalez, Dicky</t>
   </si>
   <si>
     <t>Hillenbrand, Shea</t>
   </si>
   <si>
-    <t>407,500</t>
-  </si>
-  <si>
     <t>Howry, Bobby</t>
   </si>
   <si>
-    <t>1,700,000</t>
-  </si>
-  <si>
     <t>Jackson, Damian</t>
   </si>
   <si>
-    <t>625,000</t>
-  </si>
-  <si>
     <t>Lowe, Derek</t>
   </si>
   <si>
-    <t>3,625,000</t>
-  </si>
-  <si>
     <t>Lyon, Brandon</t>
   </si>
   <si>
-    <t>309,500</t>
-  </si>
-  <si>
     <t>Martinez, Pedro</t>
   </si>
   <si>
-    <t>15,500,000</t>
-  </si>
-  <si>
     <t>Mendoza, Ramiro</t>
   </si>
   <si>
-    <t>2,900,000</t>
-  </si>
-  <si>
     <t>Millar, Kevin</t>
   </si>
   <si>
     <t>Mirabelli, Doug</t>
   </si>
   <si>
-    <t>805,000</t>
-  </si>
-  <si>
     <t>Mueller, Bill</t>
   </si>
   <si>
-    <t>2,100,000</t>
-  </si>
-  <si>
     <t>Nixon, Trot</t>
   </si>
   <si>
-    <t>4,000,000</t>
-  </si>
-  <si>
     <t>Ortiz, David</t>
   </si>
   <si>
-    <t>1,250,000</t>
-  </si>
-  <si>
     <t>Person, Robert</t>
   </si>
   <si>
     <t>Ramirez, Manny</t>
   </si>
   <si>
-    <t>20,000,000</t>
-  </si>
-  <si>
     <t>Timlin, Mike</t>
   </si>
   <si>
-    <t>1,850,000</t>
-  </si>
-  <si>
     <t>Varitek, Jason</t>
   </si>
   <si>
-    <t>4,700,000</t>
-  </si>
-  <si>
     <t>Wakefield, Tim</t>
   </si>
   <si>
     <t>Walker, Todd</t>
   </si>
   <si>
-    <t>3,450,000</t>
-  </si>
-  <si>
     <t>White, Matt</t>
   </si>
   <si>
@@ -551,126 +512,72 @@
     <t>Baez, Danys</t>
   </si>
   <si>
-    <t>5,125,000</t>
-  </si>
-  <si>
     <t>Bard, Josh</t>
   </si>
   <si>
-    <t>302,100</t>
-  </si>
-  <si>
     <t>Bere, Jason</t>
   </si>
   <si>
     <t>Blake, Casey</t>
   </si>
   <si>
-    <t>330,000</t>
-  </si>
-  <si>
     <t>Bradley, Milton</t>
   </si>
   <si>
-    <t>314,300</t>
-  </si>
-  <si>
     <t>Broussard, Benjamin</t>
   </si>
   <si>
-    <t>303,000</t>
-  </si>
-  <si>
     <t>Burks, Ellis</t>
   </si>
   <si>
-    <t>7,166,667</t>
-  </si>
-  <si>
     <t>Davis, Jason</t>
   </si>
   <si>
-    <t>301,100</t>
-  </si>
-  <si>
     <t>Garcia, Karim</t>
   </si>
   <si>
     <t>Gutierrez, Ricky</t>
   </si>
   <si>
-    <t>3,916,667</t>
-  </si>
-  <si>
     <t>Hafner, Travis</t>
   </si>
   <si>
-    <t>302,200</t>
-  </si>
-  <si>
     <t>Laker, Tim</t>
   </si>
   <si>
     <t>Lawton, Matt</t>
   </si>
   <si>
-    <t>6,750,000</t>
-  </si>
-  <si>
     <t>Lee, Cliff</t>
   </si>
   <si>
-    <t>300,900</t>
-  </si>
-  <si>
     <t>McDonald, John</t>
   </si>
   <si>
-    <t>314,400</t>
-  </si>
-  <si>
     <t>Mulholland, Terry</t>
   </si>
   <si>
     <t>Myette, Aaron</t>
   </si>
   <si>
-    <t>307,500</t>
-  </si>
-  <si>
     <t>Phillips, Brandon</t>
   </si>
   <si>
     <t>Riske, David</t>
   </si>
   <si>
-    <t>314,000</t>
-  </si>
-  <si>
     <t>Rodriguez, Ricardo</t>
   </si>
   <si>
-    <t>302,400</t>
-  </si>
-  <si>
     <t>Sabathia, CC</t>
   </si>
   <si>
-    <t>1,100,000</t>
-  </si>
-  <si>
     <t>Sadler, Carl</t>
   </si>
   <si>
-    <t>303,200</t>
-  </si>
-  <si>
     <t>Santiago, Jose</t>
   </si>
   <si>
-    <t>600,000</t>
-  </si>
-  <si>
     <t>Selby, Bill</t>
   </si>
   <si>
@@ -686,18 +593,12 @@
     <t>Westbrook, Jake</t>
   </si>
   <si>
-    <t>305,500</t>
-  </si>
-  <si>
     <t>Wickman, Bob</t>
   </si>
   <si>
     <t>Wohlers, Mark</t>
   </si>
   <si>
-    <t>2,600,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Toronto Blue Jays </t>
   </si>
   <si>
@@ -716,42 +617,24 @@
     <t>Delgado, Carlos</t>
   </si>
   <si>
-    <t>18,700,000</t>
-  </si>
-  <si>
     <t>Escobar, Kelvim</t>
   </si>
   <si>
-    <t>3,900,000</t>
-  </si>
-  <si>
     <t>File, Bob</t>
   </si>
   <si>
-    <t>310,000</t>
-  </si>
-  <si>
     <t>Halladay, Roy</t>
   </si>
   <si>
-    <t>3,825,000</t>
-  </si>
-  <si>
     <t>Hendrickson, Mark</t>
   </si>
   <si>
-    <t>302,000</t>
-  </si>
-  <si>
     <t>Hinske, Eric</t>
   </si>
   <si>
     <t>Huckaby, Ken</t>
   </si>
   <si>
-    <t>313,000</t>
-  </si>
-  <si>
     <t>Hudson, Orlando</t>
   </si>
   <si>
@@ -761,9 +644,6 @@
     <t>Linton, Doug</t>
   </si>
   <si>
-    <t>350,000</t>
-  </si>
-  <si>
     <t>Lopez, Aquilino</t>
   </si>
   <si>
@@ -779,15 +659,9 @@
     <t>Politte, Cliff</t>
   </si>
   <si>
-    <t>845,000</t>
-  </si>
-  <si>
     <t>Stewart, Shannon</t>
   </si>
   <si>
-    <t>6,200,000</t>
-  </si>
-  <si>
     <t>Sturtze, Tanyon</t>
   </si>
   <si>
@@ -800,33 +674,21 @@
     <t>Wells, Vernon</t>
   </si>
   <si>
-    <t>520,000</t>
-  </si>
-  <si>
     <t>Werth, Jayson</t>
   </si>
   <si>
     <t>Wilson, Tom</t>
   </si>
   <si>
-    <t>316,000</t>
-  </si>
-  <si>
     <t>Woodward, Chris</t>
   </si>
   <si>
-    <t>775,000</t>
-  </si>
-  <si>
     <t>Baltimore Orioles</t>
   </si>
   <si>
     <t>Batista, Tony</t>
   </si>
   <si>
-    <t>6,400,000</t>
-  </si>
-  <si>
     <t>Bauer, Rick</t>
   </si>
   <si>
@@ -842,9 +704,6 @@
     <t>Cordova, Marty</t>
   </si>
   <si>
-    <t>3,100,000</t>
-  </si>
-  <si>
     <t>Cruz, Deivi</t>
   </si>
   <si>
@@ -854,15 +713,9 @@
     <t>Erickson, Scott</t>
   </si>
   <si>
-    <t>7,030,000</t>
-  </si>
-  <si>
     <t>Fordyce, Brook</t>
   </si>
   <si>
-    <t>3,500,000</t>
-  </si>
-  <si>
     <t>Gibbons, Jay</t>
   </si>
   <si>
@@ -875,18 +728,12 @@
     <t>Hairston, Jerry</t>
   </si>
   <si>
-    <t>1,550,000</t>
-  </si>
-  <si>
     <t>Helling, Rick</t>
   </si>
   <si>
     <t>Hentgen, Pat</t>
   </si>
   <si>
-    <t>1,200,000</t>
-  </si>
-  <si>
     <t>Johson, Jason</t>
   </si>
   <si>
@@ -908,9 +755,6 @@
     <t>Mora, Melvin</t>
   </si>
   <si>
-    <t>1,725,000</t>
-  </si>
-  <si>
     <t>Morban, Jose</t>
   </si>
   <si>
@@ -923,15 +767,9 @@
     <t>Ryan, BJ</t>
   </si>
   <si>
-    <t>762,500</t>
-  </si>
-  <si>
     <t>Segui, David</t>
   </si>
   <si>
-    <t>7,000,000</t>
-  </si>
-  <si>
     <t>Surhoff, BJ</t>
   </si>
   <si>
@@ -986,9 +824,6 @@
     <t>Ordonez, Rey</t>
   </si>
   <si>
-    <t>6,500,000</t>
-  </si>
-  <si>
     <t>Parque, Jim</t>
   </si>
   <si>
@@ -1031,9 +866,6 @@
     <t>Berger, Grandon</t>
   </si>
   <si>
-    <t>304,000</t>
-  </si>
-  <si>
     <t>Berroa, Angel</t>
   </si>
   <si>
@@ -1043,9 +875,6 @@
     <t>Bukvich, Ryan</t>
   </si>
   <si>
-    <t>304,500</t>
-  </si>
-  <si>
     <t>Carrasco, DJ</t>
   </si>
   <si>
@@ -1058,9 +887,6 @@
     <t>George, Chris</t>
   </si>
   <si>
-    <t>303,500</t>
-  </si>
-  <si>
     <t>Grimsley, Jason</t>
   </si>
   <si>
@@ -1085,27 +911,15 @@
     <t>MacDougal, Mike</t>
   </si>
   <si>
-    <t>301,000</t>
-  </si>
-  <si>
     <t>May, Darrell</t>
   </si>
   <si>
-    <t>450,000</t>
-  </si>
-  <si>
     <t>Mayne, Brent</t>
   </si>
   <si>
-    <t>2,750,000</t>
-  </si>
-  <si>
     <t>Randa, Joe</t>
   </si>
   <si>
-    <t>4,500,000</t>
-  </si>
-  <si>
     <t>Relaford, Desi</t>
   </si>
   <si>
@@ -1118,9 +932,6 @@
     <t>Wilson, Kris</t>
   </si>
   <si>
-    <t>311,000</t>
-  </si>
-  <si>
     <t>Minnesota Twins</t>
   </si>
   <si>
@@ -1139,15 +950,9 @@
     <t>Guardado, Eddie</t>
   </si>
   <si>
-    <t>2,700,000</t>
-  </si>
-  <si>
     <t>Guzman, Cristian</t>
   </si>
   <si>
-    <t>2,525,000</t>
-  </si>
-  <si>
     <t>Hawkins, Latroy</t>
   </si>
   <si>
@@ -1157,9 +962,6 @@
     <t>Hunter, Torii</t>
   </si>
   <si>
-    <t>4,750,000</t>
-  </si>
-  <si>
     <t>Jones, Jacque</t>
   </si>
   <si>
@@ -1169,9 +971,6 @@
     <t>Koskie, Corey</t>
   </si>
   <si>
-    <t>3,400,000</t>
-  </si>
-  <si>
     <t>Lecroy, Matt</t>
   </si>
   <si>
@@ -1184,9 +983,6 @@
     <t>Mientkiewicz, Doug</t>
   </si>
   <si>
-    <t>1,750,000</t>
-  </si>
-  <si>
     <t>Milton, Eric</t>
   </si>
   <si>
@@ -1196,27 +992,18 @@
     <t>Pierzynski, AJ</t>
   </si>
   <si>
-    <t>365,000</t>
-  </si>
-  <si>
     <t>Prince, Tom</t>
   </si>
   <si>
     <t>Radke, Brad</t>
   </si>
   <si>
-    <t>8,750,000</t>
-  </si>
-  <si>
     <t>Reed, Rick</t>
   </si>
   <si>
     <t>Rivas, Luis</t>
   </si>
   <si>
-    <t>340,000</t>
-  </si>
-  <si>
     <t>Rogers, Kenny</t>
   </si>
   <si>
@@ -1226,9 +1013,6 @@
     <t>Santana, Johan</t>
   </si>
   <si>
-    <t>335,000</t>
-  </si>
-  <si>
     <t>Chicago White Sox</t>
   </si>
   <si>
@@ -1238,15 +1022,9 @@
     <t>Buehrle, Mark</t>
   </si>
   <si>
-    <t>445,000</t>
-  </si>
-  <si>
     <t>Colon, Bartolo</t>
   </si>
   <si>
-    <t>8,250,000</t>
-  </si>
-  <si>
     <t>Crede, Joe</t>
   </si>
   <si>
@@ -1262,36 +1040,21 @@
     <t>Gordon, Tom</t>
   </si>
   <si>
-    <t>1,400,000</t>
-  </si>
-  <si>
     <t>Graffanino, Tony</t>
   </si>
   <si>
-    <t>675,000</t>
-  </si>
-  <si>
     <t>Jimenez, D'angelo</t>
   </si>
   <si>
-    <t>345,000</t>
-  </si>
-  <si>
     <t>Koch, Billy</t>
   </si>
   <si>
     <t>Konerko, Paul</t>
   </si>
   <si>
-    <t>6,250,000</t>
-  </si>
-  <si>
     <t>Lee, Carlos</t>
   </si>
   <si>
-    <t>4,200,000</t>
-  </si>
-  <si>
     <t>Loaiza, Esteban</t>
   </si>
   <si>
@@ -1304,9 +1067,6 @@
     <t>Ordonez, Magglio</t>
   </si>
   <si>
-    <t>9,000,000</t>
-  </si>
-  <si>
     <t>Paul, Josh</t>
   </si>
   <si>
@@ -1334,18 +1094,12 @@
     <t>Wunsch, Kelly</t>
   </si>
   <si>
-    <t>575,000</t>
-  </si>
-  <si>
     <t>Detroit Tigers</t>
   </si>
   <si>
     <t>Anderson, Matt</t>
   </si>
   <si>
-    <t>3,200,000</t>
-  </si>
-  <si>
     <t>Bernero, Adam</t>
   </si>
   <si>
@@ -1364,15 +1118,9 @@
     <t>Halter, Shane</t>
   </si>
   <si>
-    <t>2,150,000</t>
-  </si>
-  <si>
     <t>Higginson, Bobby</t>
   </si>
   <si>
-    <t>11,850,000</t>
-  </si>
-  <si>
     <t>Infante, Omar</t>
   </si>
   <si>
@@ -1391,24 +1139,15 @@
     <t>Maroth, Mike</t>
   </si>
   <si>
-    <t>309,000</t>
-  </si>
-  <si>
     <t>Munson, Eric</t>
   </si>
   <si>
     <t>Palmer, Dean</t>
   </si>
   <si>
-    <t>8,500,000</t>
-  </si>
-  <si>
     <t>Paquette, Craig</t>
   </si>
   <si>
-    <t>2,625,000</t>
-  </si>
-  <si>
     <t>Patterson, Danny</t>
   </si>
   <si>
@@ -1421,9 +1160,6 @@
     <t>Santiago, Ramon</t>
   </si>
   <si>
-    <t>307,000</t>
-  </si>
-  <si>
     <t>Sparks, Steve</t>
   </si>
   <si>
@@ -1436,9 +1172,6 @@
     <t>Walker, Jamie</t>
   </si>
   <si>
-    <t>360,000</t>
-  </si>
-  <si>
     <t>Young, Dmitri</t>
   </si>
   <si>
@@ -1457,18 +1190,12 @@
     <t>Cameron, Mike</t>
   </si>
   <si>
-    <t>7,416,667</t>
-  </si>
-  <si>
     <t>Carrara, Giovanni</t>
   </si>
   <si>
     <t>Cirillo, Jeff</t>
   </si>
   <si>
-    <t>6,725,000</t>
-  </si>
-  <si>
     <t>Colbrunn, Greg</t>
   </si>
   <si>
@@ -1481,18 +1208,12 @@
     <t>Garcia, Freddy</t>
   </si>
   <si>
-    <t>6,875,000</t>
-  </si>
-  <si>
     <t>Guillen, Carlos</t>
   </si>
   <si>
     <t>Hasegawa, Shigetoshi</t>
   </si>
   <si>
-    <t>1,800,000</t>
-  </si>
-  <si>
     <t>Mabry, John</t>
   </si>
   <si>
@@ -1505,9 +1226,6 @@
     <t>McLemore, Mark</t>
   </si>
   <si>
-    <t>3,150,000</t>
-  </si>
-  <si>
     <t>Meche, Gil</t>
   </si>
   <si>
@@ -1517,21 +1235,12 @@
     <t>Nelson, Jeff</t>
   </si>
   <si>
-    <t>3,983,333</t>
-  </si>
-  <si>
     <t>Olerud, John</t>
   </si>
   <si>
-    <t>7,700,000</t>
-  </si>
-  <si>
     <t>Pineiro, Joel</t>
   </si>
   <si>
-    <t>440,000</t>
-  </si>
-  <si>
     <t>Rhodes, Arthur</t>
   </si>
   <si>
@@ -1544,18 +1253,12 @@
     <t>Suzuki, Ichiro</t>
   </si>
   <si>
-    <t>4,666,667</t>
-  </si>
-  <si>
     <t>Wilson, Dan</t>
   </si>
   <si>
     <t>Winn, Randy</t>
   </si>
   <si>
-    <t>3,300,000</t>
-  </si>
-  <si>
     <t>Oakland Athletics</t>
   </si>
   <si>
@@ -1565,30 +1268,18 @@
     <t>Bradford, Chad</t>
   </si>
   <si>
-    <t>331,000</t>
-  </si>
-  <si>
     <t>Byrnes, Eric</t>
   </si>
   <si>
     <t>Chavez, Eric</t>
   </si>
   <si>
-    <t>3,675,000</t>
-  </si>
-  <si>
     <t>Durazo, Erubiel</t>
   </si>
   <si>
-    <t>1,065,000</t>
-  </si>
-  <si>
     <t>Dye, Jermaine</t>
   </si>
   <si>
-    <t>11,666,667</t>
-  </si>
-  <si>
     <t>Ellis, Mark</t>
   </si>
   <si>
@@ -1610,9 +1301,6 @@
     <t>Hernandez, Ramon</t>
   </si>
   <si>
-    <t>1,887,500</t>
-  </si>
-  <si>
     <t>Hudson, Tim</t>
   </si>
   <si>
@@ -1625,36 +1313,21 @@
     <t>Long, Terrence</t>
   </si>
   <si>
-    <t>2,175,000</t>
-  </si>
-  <si>
     <t>Mecir, Jim</t>
   </si>
   <si>
-    <t>3,216,667</t>
-  </si>
-  <si>
     <t>Menechino, Frank</t>
   </si>
   <si>
-    <t>334,500</t>
-  </si>
-  <si>
     <t>Mulder, Mark</t>
   </si>
   <si>
-    <t>2,650,000</t>
-  </si>
-  <si>
     <t>Neu, Mike</t>
   </si>
   <si>
     <t>Piatt, Adam</t>
   </si>
   <si>
-    <t>322,000</t>
-  </si>
-  <si>
     <t>Rincon, Ricardo</t>
   </si>
   <si>
@@ -1682,15 +1355,9 @@
     <t>Diaz, Einar</t>
   </si>
   <si>
-    <t>1,837,500</t>
-  </si>
-  <si>
     <t>Everett, Carl</t>
   </si>
   <si>
-    <t>9,150,000</t>
-  </si>
-  <si>
     <t>Fultz, Aaron</t>
   </si>
   <si>
@@ -1721,9 +1388,6 @@
     <t>Mench, Kevin</t>
   </si>
   <si>
-    <t>327,500</t>
-  </si>
-  <si>
     <t>Nitkowski, CJ</t>
   </si>
   <si>
@@ -1736,18 +1400,12 @@
     <t>Perry, Herbert</t>
   </si>
   <si>
-    <t>1,300,000</t>
-  </si>
-  <si>
     <t>Powell, Jay</t>
   </si>
   <si>
     <t>Rodriguez, Alex</t>
   </si>
   <si>
-    <t>22,000,000</t>
-  </si>
-  <si>
     <t>Sierra, Ruben</t>
   </si>
   <si>
@@ -1772,20 +1430,14 @@
     <t>Young, Mike B</t>
   </si>
   <si>
-    <t>415,000</t>
-  </si>
-  <si>
     <t>Zimmerman, Jeff</t>
-  </si>
-  <si>
-    <t>3,366,667</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1793,6 +1445,19 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1815,8 +1480,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2100,248 +1767,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I382"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2" s="2">
+        <v>900000</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300000</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="e">
-        <f>AVERAGE(C2:C382)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10100000</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5500000</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <f>AVERAGE(C:C)</f>
+        <v>2524992.0813648296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>750000</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <f>MAX(C2:C382)</f>
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11428571</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <f>MIN(C2:C382)</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2200000</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f>MODE(C2:C382)</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6000000</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <f>MEDIAN(C2:C382)</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15600000</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>364100</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5000000</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>400000</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>550000</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
         <v>23</v>
       </c>
+      <c r="C15" s="2">
+        <v>6000000</v>
+      </c>
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13000000</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,13 +2035,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12000000</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2363,13 +2049,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2400000</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,13 +2063,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="C19" s="2">
+        <v>11500000</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2391,13 +2077,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8000000</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,13 +2091,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10500000</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,13 +2105,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>800000</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,13 +2119,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2500000</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,13 +2133,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5000000</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,13 +2147,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4150000</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,13 +2161,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3250000</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +2175,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12357143</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,13 +2189,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="2">
+        <v>700000</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,4958 +2203,5004 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1500000</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
+        <v>41</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5350000</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C31" s="2">
+        <v>11500000</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
+        <v>43</v>
+      </c>
+      <c r="C32" s="2">
+        <v>302500</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
+        <v>44</v>
+      </c>
+      <c r="C33" s="2">
+        <v>325000</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>425000</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7250000</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1000000</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="C37" s="2">
+        <v>725000</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7250000</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
+        <v>50</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2270000</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" t="s">
-        <v>86</v>
+        <v>51</v>
+      </c>
+      <c r="C40" s="2">
+        <v>315000</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1425000</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="C42" s="2">
+        <v>320000</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
+        <v>54</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2266667</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
+        <v>55</v>
+      </c>
+      <c r="C44" s="2">
+        <v>925000</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
+        <v>56</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7833333</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
+        <v>57</v>
+      </c>
+      <c r="C46" s="2">
+        <v>300000</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>99</v>
+        <v>58</v>
+      </c>
+      <c r="C47" s="2">
+        <v>312500</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="C48" s="2">
+        <v>9900000</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1425000</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" t="s">
-        <v>104</v>
+        <v>61</v>
+      </c>
+      <c r="C50" s="2">
+        <v>8166667</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>106</v>
+        <v>62</v>
+      </c>
+      <c r="C51" s="2">
+        <v>305000</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
+        <v>63</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4250000</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
+        <v>64</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3875000</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" t="s">
-        <v>112</v>
+        <v>65</v>
+      </c>
+      <c r="C54" s="2">
+        <v>375000</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
         <v>66</v>
       </c>
-      <c r="B55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" t="s">
-        <v>71</v>
+      <c r="C55" s="2">
+        <v>302500</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s">
-        <v>115</v>
+        <v>67</v>
+      </c>
+      <c r="C56" s="2">
+        <v>337500</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5500000</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="s">
-        <v>119</v>
+        <v>70</v>
+      </c>
+      <c r="C58" s="2">
+        <v>7500000</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>121</v>
+        <v>71</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3000000</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="s">
-        <v>123</v>
+        <v>72</v>
+      </c>
+      <c r="C60" s="2">
+        <v>324500</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>125</v>
+        <v>73</v>
+      </c>
+      <c r="C61" s="2">
+        <v>500000</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>127</v>
+        <v>74</v>
+      </c>
+      <c r="C62" s="2">
+        <v>11000000</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>129</v>
+        <v>75</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2000000</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="C64" s="2">
+        <v>300000</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" t="s">
-        <v>132</v>
+        <v>77</v>
+      </c>
+      <c r="C65" s="2">
+        <v>407500</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" t="s">
-        <v>134</v>
+        <v>78</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1700000</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" t="s">
-        <v>136</v>
+        <v>79</v>
+      </c>
+      <c r="C67" s="2">
+        <v>625000</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" t="s">
-        <v>138</v>
+        <v>80</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3625000</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" t="s">
-        <v>140</v>
+        <v>81</v>
+      </c>
+      <c r="C69" s="2">
+        <v>309500</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" t="s">
-        <v>142</v>
+        <v>82</v>
+      </c>
+      <c r="C70" s="2">
+        <v>15500000</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>144</v>
+        <v>83</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2900000</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" t="s">
-        <v>129</v>
+        <v>84</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2000000</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" t="s">
-        <v>147</v>
+        <v>85</v>
+      </c>
+      <c r="C73" s="2">
+        <v>805000</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" t="s">
-        <v>149</v>
+        <v>86</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2100000</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" t="s">
-        <v>151</v>
+        <v>87</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4000000</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" t="s">
-        <v>153</v>
+        <v>88</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1250000</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
+        <v>89</v>
+      </c>
+      <c r="C77" s="2">
+        <v>300000</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" t="s">
-        <v>156</v>
+        <v>90</v>
+      </c>
+      <c r="C78" s="2">
+        <v>20000000</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" t="s">
-        <v>158</v>
+        <v>91</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1850000</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" t="s">
-        <v>160</v>
+        <v>92</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4700000</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" t="s">
-        <v>151</v>
+        <v>93</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4000000</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" t="s">
-        <v>163</v>
+        <v>94</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3450000</v>
       </c>
       <c r="D82" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="C83" s="2">
+        <v>300000</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" t="s">
-        <v>65</v>
+        <v>97</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1500000</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" t="s">
-        <v>168</v>
+        <v>98</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5125000</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" t="s">
-        <v>170</v>
+        <v>99</v>
+      </c>
+      <c r="C86" s="2">
+        <v>302100</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" t="s">
-        <v>79</v>
+        <v>100</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1000000</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" t="s">
-        <v>173</v>
+        <v>101</v>
+      </c>
+      <c r="C88" s="2">
+        <v>330000</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" t="s">
-        <v>175</v>
+        <v>102</v>
+      </c>
+      <c r="C89" s="2">
+        <v>314300</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
-      </c>
-      <c r="C90" t="s">
-        <v>177</v>
+        <v>103</v>
+      </c>
+      <c r="C90" s="2">
+        <v>303000</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
-      </c>
-      <c r="C91" t="s">
-        <v>179</v>
+        <v>104</v>
+      </c>
+      <c r="C91" s="2">
+        <v>7166667</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
-      </c>
-      <c r="C92" t="s">
-        <v>181</v>
+        <v>105</v>
+      </c>
+      <c r="C92" s="2">
+        <v>301100</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="C93" s="2">
+        <v>900000</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" t="s">
-        <v>184</v>
+        <v>107</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3916667</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
-      </c>
-      <c r="C95" t="s">
-        <v>186</v>
+        <v>108</v>
+      </c>
+      <c r="C95" s="2">
+        <v>302200</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
-      </c>
-      <c r="C96" t="s">
-        <v>32</v>
+        <v>109</v>
+      </c>
+      <c r="C96" s="2">
+        <v>400000</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" t="s">
-        <v>189</v>
+        <v>110</v>
+      </c>
+      <c r="C97" s="2">
+        <v>6750000</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
-      </c>
-      <c r="C98" t="s">
-        <v>191</v>
+        <v>111</v>
+      </c>
+      <c r="C98" s="2">
+        <v>300900</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>192</v>
-      </c>
-      <c r="C99" t="s">
-        <v>193</v>
+        <v>112</v>
+      </c>
+      <c r="C99" s="2">
+        <v>314400</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="C100" s="2">
+        <v>500000</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
-      </c>
-      <c r="C101" t="s">
-        <v>196</v>
+        <v>114</v>
+      </c>
+      <c r="C101" s="2">
+        <v>307500</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" t="s">
-        <v>191</v>
+        <v>115</v>
+      </c>
+      <c r="C102" s="2">
+        <v>300900</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
-      </c>
-      <c r="C103" t="s">
-        <v>199</v>
+        <v>116</v>
+      </c>
+      <c r="C103" s="2">
+        <v>314000</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>200</v>
-      </c>
-      <c r="C104" t="s">
-        <v>201</v>
+        <v>117</v>
+      </c>
+      <c r="C104" s="2">
+        <v>302400</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" t="s">
-        <v>203</v>
+        <v>118</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1100000</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
-      </c>
-      <c r="C106" t="s">
-        <v>205</v>
+        <v>119</v>
+      </c>
+      <c r="C106" s="2">
+        <v>303200</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
-      </c>
-      <c r="C107" t="s">
-        <v>207</v>
+        <v>120</v>
+      </c>
+      <c r="C107" s="2">
+        <v>600000</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
-      </c>
-      <c r="C108" t="s">
-        <v>73</v>
+        <v>121</v>
+      </c>
+      <c r="C108" s="2">
+        <v>325000</v>
       </c>
       <c r="D108" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
-      </c>
-      <c r="C109" t="s">
-        <v>207</v>
+        <v>122</v>
+      </c>
+      <c r="C109" s="2">
+        <v>600000</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
+        <v>123</v>
+      </c>
+      <c r="C110" s="2">
+        <v>300000</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
+        <v>124</v>
+      </c>
+      <c r="C111" s="2">
+        <v>5500000</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
-      </c>
-      <c r="C112" t="s">
-        <v>213</v>
+        <v>125</v>
+      </c>
+      <c r="C112" s="2">
+        <v>305500</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
-      </c>
-      <c r="C113" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="C113" s="2">
+        <v>6000000</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
-      </c>
-      <c r="C114" t="s">
-        <v>216</v>
+        <v>127</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2600000</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
-      </c>
-      <c r="C115" t="s">
-        <v>63</v>
+        <v>129</v>
+      </c>
+      <c r="C115" s="2">
+        <v>700000</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>219</v>
-      </c>
-      <c r="C116" t="s">
-        <v>79</v>
+        <v>130</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1000000</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>220</v>
-      </c>
-      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2200000</v>
+      </c>
+      <c r="D117" t="s">
         <v>21</v>
-      </c>
-      <c r="D117" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C118" t="s">
-        <v>63</v>
+        <v>132</v>
+      </c>
+      <c r="C118" s="2">
+        <v>700000</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
-      </c>
-      <c r="C119" t="s">
-        <v>223</v>
+        <v>133</v>
+      </c>
+      <c r="C119" s="2">
+        <v>18700000</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>224</v>
-      </c>
-      <c r="C120" t="s">
-        <v>225</v>
+        <v>134</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3900000</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>226</v>
-      </c>
-      <c r="C121" t="s">
-        <v>227</v>
+        <v>135</v>
+      </c>
+      <c r="C121" s="2">
+        <v>310000</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
-      </c>
-      <c r="C122" t="s">
-        <v>229</v>
+        <v>136</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3825000</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
-      </c>
-      <c r="C123" t="s">
-        <v>231</v>
+        <v>137</v>
+      </c>
+      <c r="C123" s="2">
+        <v>302000</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>232</v>
-      </c>
-      <c r="C124" t="s">
-        <v>207</v>
+        <v>138</v>
+      </c>
+      <c r="C124" s="2">
+        <v>600000</v>
       </c>
       <c r="D124" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>233</v>
-      </c>
-      <c r="C125" t="s">
-        <v>234</v>
+        <v>139</v>
+      </c>
+      <c r="C125" s="2">
+        <v>313000</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>235</v>
-      </c>
-      <c r="C126" t="s">
-        <v>234</v>
+        <v>140</v>
+      </c>
+      <c r="C126" s="2">
+        <v>313000</v>
       </c>
       <c r="D126" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
-      </c>
-      <c r="C127" t="s">
-        <v>68</v>
+        <v>141</v>
+      </c>
+      <c r="C127" s="2">
+        <v>5350000</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>237</v>
-      </c>
-      <c r="C128" t="s">
-        <v>238</v>
+        <v>142</v>
+      </c>
+      <c r="C128" s="2">
+        <v>350000</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>239</v>
-      </c>
-      <c r="C129" t="s">
-        <v>9</v>
+        <v>143</v>
+      </c>
+      <c r="C129" s="2">
+        <v>300000</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
-      </c>
-      <c r="C130" t="s">
-        <v>106</v>
+        <v>144</v>
+      </c>
+      <c r="C130" s="2">
+        <v>305000</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
-      </c>
-      <c r="C131" t="s">
-        <v>50</v>
+        <v>145</v>
+      </c>
+      <c r="C131" s="2">
+        <v>800000</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
-      </c>
-      <c r="C132" t="s">
-        <v>90</v>
+        <v>146</v>
+      </c>
+      <c r="C132" s="2">
+        <v>320000</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
-      </c>
-      <c r="C133" t="s">
-        <v>244</v>
+        <v>147</v>
+      </c>
+      <c r="C133" s="2">
+        <v>845000</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B134" t="s">
-        <v>245</v>
-      </c>
-      <c r="C134" t="s">
-        <v>246</v>
+        <v>148</v>
+      </c>
+      <c r="C134" s="2">
+        <v>6200000</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B135" t="s">
-        <v>247</v>
-      </c>
-      <c r="C135" t="s">
-        <v>79</v>
+        <v>149</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1000000</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B136" t="s">
-        <v>248</v>
-      </c>
-      <c r="C136" t="s">
-        <v>207</v>
+        <v>150</v>
+      </c>
+      <c r="C136" s="2">
+        <v>600000</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B137" t="s">
-        <v>249</v>
-      </c>
-      <c r="C137" t="s">
-        <v>75</v>
+        <v>151</v>
+      </c>
+      <c r="C137" s="2">
+        <v>425000</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>250</v>
-      </c>
-      <c r="C138" t="s">
-        <v>251</v>
+        <v>152</v>
+      </c>
+      <c r="C138" s="2">
+        <v>520000</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B139" t="s">
-        <v>252</v>
-      </c>
-      <c r="C139" t="s">
-        <v>9</v>
+        <v>153</v>
+      </c>
+      <c r="C139" s="2">
+        <v>300000</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B140" t="s">
-        <v>253</v>
-      </c>
-      <c r="C140" t="s">
-        <v>254</v>
+        <v>154</v>
+      </c>
+      <c r="C140" s="2">
+        <v>316000</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B141" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" t="s">
-        <v>256</v>
+        <v>155</v>
+      </c>
+      <c r="C141" s="2">
+        <v>775000</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
-      </c>
-      <c r="C142" t="s">
-        <v>259</v>
+        <v>157</v>
+      </c>
+      <c r="C142" s="2">
+        <v>6400000</v>
       </c>
       <c r="D142" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
-      </c>
-      <c r="C143" t="s">
-        <v>73</v>
+        <v>158</v>
+      </c>
+      <c r="C143" s="2">
+        <v>325000</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
+        <v>159</v>
+      </c>
+      <c r="C144" s="2">
+        <v>300000</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
-      </c>
-      <c r="C145" t="s">
-        <v>38</v>
+        <v>160</v>
+      </c>
+      <c r="C145" s="2">
+        <v>13000000</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" t="s">
-        <v>108</v>
+        <v>161</v>
+      </c>
+      <c r="C146" s="2">
+        <v>4250000</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>264</v>
-      </c>
-      <c r="C147" t="s">
-        <v>265</v>
+        <v>162</v>
+      </c>
+      <c r="C147" s="2">
+        <v>3100000</v>
       </c>
       <c r="D147" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>266</v>
-      </c>
-      <c r="C148" t="s">
-        <v>79</v>
+        <v>163</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1000000</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
-      </c>
-      <c r="C149" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="C149" s="2">
+        <v>3000000</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
-      </c>
-      <c r="C150" t="s">
-        <v>269</v>
+        <v>165</v>
+      </c>
+      <c r="C150" s="2">
+        <v>7030000</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>270</v>
-      </c>
-      <c r="C151" t="s">
-        <v>271</v>
+        <v>166</v>
+      </c>
+      <c r="C151" s="2">
+        <v>3500000</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
-      </c>
-      <c r="C152" t="s">
-        <v>112</v>
+        <v>167</v>
+      </c>
+      <c r="C152" s="2">
+        <v>375000</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
-      </c>
-      <c r="C153" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="C153" s="2">
+        <v>330000</v>
       </c>
       <c r="D153" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
-      </c>
-      <c r="C154" t="s">
-        <v>121</v>
+        <v>169</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3000000</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
-      </c>
-      <c r="C155" t="s">
-        <v>276</v>
+        <v>170</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1550000</v>
       </c>
       <c r="D155" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
-      </c>
-      <c r="C156" t="s">
-        <v>79</v>
+        <v>171</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1000000</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
-      </c>
-      <c r="C157" t="s">
-        <v>279</v>
+        <v>172</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1200000</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
-      </c>
-      <c r="C158" t="s">
-        <v>144</v>
+        <v>173</v>
+      </c>
+      <c r="C158" s="2">
+        <v>2900000</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>281</v>
-      </c>
-      <c r="C159" t="s">
-        <v>238</v>
+        <v>174</v>
+      </c>
+      <c r="C159" s="2">
+        <v>350000</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>282</v>
-      </c>
-      <c r="C160" t="s">
-        <v>106</v>
+        <v>175</v>
+      </c>
+      <c r="C160" s="2">
+        <v>305000</v>
       </c>
       <c r="D160" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>283</v>
-      </c>
-      <c r="C161" t="s">
-        <v>279</v>
+        <v>176</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1200000</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>284</v>
-      </c>
-      <c r="C162" t="s">
-        <v>73</v>
+        <v>177</v>
+      </c>
+      <c r="C162" s="2">
+        <v>325000</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B163" t="s">
-        <v>285</v>
-      </c>
-      <c r="C163" t="s">
-        <v>6</v>
+        <v>178</v>
+      </c>
+      <c r="C163" s="2">
+        <v>900000</v>
       </c>
       <c r="D163" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B164" t="s">
-        <v>286</v>
-      </c>
-      <c r="C164" t="s">
-        <v>287</v>
+        <v>179</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1725000</v>
       </c>
       <c r="D164" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B165" t="s">
-        <v>288</v>
-      </c>
-      <c r="C165" t="s">
-        <v>9</v>
+        <v>180</v>
+      </c>
+      <c r="C165" s="2">
+        <v>300000</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B166" t="s">
-        <v>289</v>
-      </c>
-      <c r="C166" t="s">
-        <v>108</v>
+        <v>181</v>
+      </c>
+      <c r="C166" s="2">
+        <v>4250000</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>290</v>
-      </c>
-      <c r="C167" t="s">
-        <v>271</v>
+        <v>182</v>
+      </c>
+      <c r="C167" s="2">
+        <v>3500000</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B168" t="s">
-        <v>291</v>
-      </c>
-      <c r="C168" t="s">
-        <v>292</v>
+        <v>183</v>
+      </c>
+      <c r="C168" s="2">
+        <v>762500</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B169" t="s">
-        <v>293</v>
-      </c>
-      <c r="C169" t="s">
-        <v>294</v>
+        <v>184</v>
+      </c>
+      <c r="C169" s="2">
+        <v>7000000</v>
       </c>
       <c r="D169" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>295</v>
-      </c>
-      <c r="C170" t="s">
-        <v>79</v>
+        <v>185</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1000000</v>
       </c>
       <c r="D170" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B171" t="s">
-        <v>297</v>
-      </c>
-      <c r="C171" t="s">
-        <v>9</v>
+        <v>187</v>
+      </c>
+      <c r="C171" s="2">
+        <v>300000</v>
       </c>
       <c r="D171" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B172" t="s">
-        <v>298</v>
-      </c>
-      <c r="C172" t="s">
-        <v>207</v>
+        <v>188</v>
+      </c>
+      <c r="C172" s="2">
+        <v>600000</v>
       </c>
       <c r="D172" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B173" t="s">
-        <v>299</v>
-      </c>
-      <c r="C173" t="s">
-        <v>9</v>
+        <v>189</v>
+      </c>
+      <c r="C173" s="2">
+        <v>300000</v>
       </c>
       <c r="D173" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B174" t="s">
-        <v>300</v>
-      </c>
-      <c r="C174" t="s">
-        <v>9</v>
+        <v>190</v>
+      </c>
+      <c r="C174" s="2">
+        <v>300000</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>301</v>
-      </c>
-      <c r="C175" t="s">
-        <v>9</v>
+        <v>191</v>
+      </c>
+      <c r="C175" s="2">
+        <v>300000</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>302</v>
-      </c>
-      <c r="C176" t="s">
-        <v>9</v>
+        <v>192</v>
+      </c>
+      <c r="C176" s="2">
+        <v>300000</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B177" t="s">
-        <v>303</v>
-      </c>
-      <c r="C177" t="s">
-        <v>9</v>
+        <v>193</v>
+      </c>
+      <c r="C177" s="2">
+        <v>300000</v>
       </c>
       <c r="D177" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>304</v>
-      </c>
-      <c r="C178" t="s">
-        <v>13</v>
+        <v>194</v>
+      </c>
+      <c r="C178" s="2">
+        <v>5500000</v>
       </c>
       <c r="D178" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>305</v>
-      </c>
-      <c r="C179" t="s">
-        <v>9</v>
+        <v>195</v>
+      </c>
+      <c r="C179" s="2">
+        <v>300000</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>306</v>
-      </c>
-      <c r="C180" t="s">
-        <v>73</v>
+        <v>196</v>
+      </c>
+      <c r="C180" s="2">
+        <v>325000</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>307</v>
-      </c>
-      <c r="C181" t="s">
-        <v>73</v>
+        <v>197</v>
+      </c>
+      <c r="C181" s="2">
+        <v>325000</v>
       </c>
       <c r="D181" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B182" t="s">
-        <v>308</v>
-      </c>
-      <c r="C182" t="s">
-        <v>9</v>
+        <v>198</v>
+      </c>
+      <c r="C182" s="2">
+        <v>300000</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>309</v>
-      </c>
-      <c r="C183" t="s">
-        <v>125</v>
+        <v>199</v>
+      </c>
+      <c r="C183" s="2">
+        <v>500000</v>
       </c>
       <c r="D183" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>310</v>
-      </c>
-      <c r="C184" t="s">
-        <v>9</v>
+        <v>200</v>
+      </c>
+      <c r="C184" s="2">
+        <v>300000</v>
       </c>
       <c r="D184" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>311</v>
-      </c>
-      <c r="C185" t="s">
-        <v>9</v>
+        <v>201</v>
+      </c>
+      <c r="C185" s="2">
+        <v>300000</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>312</v>
-      </c>
-      <c r="C186" t="s">
-        <v>313</v>
+        <v>202</v>
+      </c>
+      <c r="C186" s="2">
+        <v>6500000</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>314</v>
-      </c>
-      <c r="C187" t="s">
-        <v>32</v>
+        <v>203</v>
+      </c>
+      <c r="C187" s="2">
+        <v>400000</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>315</v>
-      </c>
-      <c r="C188" t="s">
-        <v>32</v>
+        <v>204</v>
+      </c>
+      <c r="C188" s="2">
+        <v>400000</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>316</v>
-      </c>
-      <c r="C189" t="s">
-        <v>9</v>
+        <v>205</v>
+      </c>
+      <c r="C189" s="2">
+        <v>300000</v>
       </c>
       <c r="D189" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>317</v>
-      </c>
-      <c r="C190" t="s">
-        <v>9</v>
+        <v>206</v>
+      </c>
+      <c r="C190" s="2">
+        <v>300000</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B191" t="s">
-        <v>318</v>
-      </c>
-      <c r="C191" t="s">
-        <v>9</v>
+        <v>207</v>
+      </c>
+      <c r="C191" s="2">
+        <v>300000</v>
       </c>
       <c r="D191" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B192" t="s">
-        <v>319</v>
-      </c>
-      <c r="C192" t="s">
-        <v>9</v>
+        <v>208</v>
+      </c>
+      <c r="C192" s="2">
+        <v>300000</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B193" t="s">
-        <v>320</v>
-      </c>
-      <c r="C193" t="s">
-        <v>9</v>
+        <v>209</v>
+      </c>
+      <c r="C193" s="2">
+        <v>300000</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B194" t="s">
-        <v>321</v>
-      </c>
-      <c r="C194" t="s">
-        <v>9</v>
+        <v>210</v>
+      </c>
+      <c r="C194" s="2">
+        <v>300000</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B195" t="s">
-        <v>322</v>
-      </c>
-      <c r="C195" t="s">
-        <v>9</v>
+        <v>211</v>
+      </c>
+      <c r="C195" s="2">
+        <v>300000</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B196" t="s">
-        <v>324</v>
-      </c>
-      <c r="C196" t="s">
-        <v>234</v>
+        <v>213</v>
+      </c>
+      <c r="C196" s="2">
+        <v>313000</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B197" t="s">
-        <v>325</v>
-      </c>
-      <c r="C197" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="C197" s="2">
+        <v>314000</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B198" t="s">
-        <v>326</v>
-      </c>
-      <c r="C198" t="s">
-        <v>23</v>
+        <v>215</v>
+      </c>
+      <c r="C198" s="2">
+        <v>6000000</v>
       </c>
       <c r="D198" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B199" t="s">
-        <v>327</v>
-      </c>
-      <c r="C199" t="s">
-        <v>328</v>
+        <v>216</v>
+      </c>
+      <c r="C199" s="2">
+        <v>304000</v>
       </c>
       <c r="D199" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B200" t="s">
-        <v>329</v>
-      </c>
-      <c r="C200" t="s">
-        <v>231</v>
+        <v>217</v>
+      </c>
+      <c r="C200" s="2">
+        <v>302000</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>330</v>
-      </c>
-      <c r="C201" t="s">
-        <v>140</v>
+        <v>218</v>
+      </c>
+      <c r="C201" s="2">
+        <v>309500</v>
       </c>
       <c r="D201" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B202" t="s">
-        <v>331</v>
-      </c>
-      <c r="C202" t="s">
-        <v>332</v>
+        <v>219</v>
+      </c>
+      <c r="C202" s="2">
+        <v>304500</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B203" t="s">
-        <v>333</v>
-      </c>
-      <c r="C203" t="s">
-        <v>9</v>
+        <v>220</v>
+      </c>
+      <c r="C203" s="2">
+        <v>300000</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>334</v>
-      </c>
-      <c r="C204" t="s">
-        <v>136</v>
+        <v>221</v>
+      </c>
+      <c r="C204" s="2">
+        <v>625000</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B205" t="s">
-        <v>335</v>
-      </c>
-      <c r="C205" t="s">
-        <v>256</v>
+        <v>222</v>
+      </c>
+      <c r="C205" s="2">
+        <v>775000</v>
       </c>
       <c r="D205" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>336</v>
-      </c>
-      <c r="C206" t="s">
-        <v>337</v>
+        <v>223</v>
+      </c>
+      <c r="C206" s="2">
+        <v>303500</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B207" t="s">
-        <v>338</v>
-      </c>
-      <c r="C207" t="s">
-        <v>129</v>
+        <v>224</v>
+      </c>
+      <c r="C207" s="2">
+        <v>2000000</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B208" t="s">
-        <v>339</v>
-      </c>
-      <c r="C208" t="s">
-        <v>9</v>
+        <v>225</v>
+      </c>
+      <c r="C208" s="2">
+        <v>300000</v>
       </c>
       <c r="D208" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>340</v>
-      </c>
-      <c r="C209" t="s">
-        <v>213</v>
+        <v>226</v>
+      </c>
+      <c r="C209" s="2">
+        <v>305500</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>341</v>
-      </c>
-      <c r="C210" t="s">
-        <v>121</v>
+        <v>227</v>
+      </c>
+      <c r="C210" s="2">
+        <v>3000000</v>
       </c>
       <c r="D210" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>342</v>
-      </c>
-      <c r="C211" t="s">
-        <v>9</v>
+        <v>228</v>
+      </c>
+      <c r="C211" s="2">
+        <v>300000</v>
       </c>
       <c r="D211" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>343</v>
-      </c>
-      <c r="C212" t="s">
-        <v>65</v>
+        <v>229</v>
+      </c>
+      <c r="C212" s="2">
+        <v>1500000</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>344</v>
-      </c>
-      <c r="C213" t="s">
-        <v>9</v>
+        <v>230</v>
+      </c>
+      <c r="C213" s="2">
+        <v>300000</v>
       </c>
       <c r="D213" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>345</v>
-      </c>
-      <c r="C214" t="s">
-        <v>346</v>
+        <v>231</v>
+      </c>
+      <c r="C214" s="2">
+        <v>301000</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>347</v>
-      </c>
-      <c r="C215" t="s">
-        <v>348</v>
+        <v>232</v>
+      </c>
+      <c r="C215" s="2">
+        <v>450000</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B216" t="s">
-        <v>349</v>
-      </c>
-      <c r="C216" t="s">
-        <v>350</v>
+        <v>233</v>
+      </c>
+      <c r="C216" s="2">
+        <v>2750000</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>351</v>
-      </c>
-      <c r="C217" t="s">
-        <v>352</v>
+        <v>234</v>
+      </c>
+      <c r="C217" s="2">
+        <v>4500000</v>
       </c>
       <c r="D217" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B218" t="s">
-        <v>353</v>
-      </c>
-      <c r="C218" t="s">
-        <v>6</v>
+        <v>235</v>
+      </c>
+      <c r="C218" s="2">
+        <v>900000</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B219" t="s">
-        <v>354</v>
-      </c>
-      <c r="C219" t="s">
-        <v>127</v>
+        <v>236</v>
+      </c>
+      <c r="C219" s="2">
+        <v>11000000</v>
       </c>
       <c r="D219" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B220" t="s">
-        <v>355</v>
-      </c>
-      <c r="C220" t="s">
-        <v>350</v>
+        <v>237</v>
+      </c>
+      <c r="C220" s="2">
+        <v>2750000</v>
       </c>
       <c r="D220" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B221" t="s">
-        <v>356</v>
-      </c>
-      <c r="C221" t="s">
-        <v>357</v>
+        <v>238</v>
+      </c>
+      <c r="C221" s="2">
+        <v>311000</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B222" t="s">
-        <v>359</v>
-      </c>
-      <c r="C222" t="s">
-        <v>71</v>
+        <v>240</v>
+      </c>
+      <c r="C222" s="2">
+        <v>302500</v>
       </c>
       <c r="D222" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B223" t="s">
-        <v>360</v>
-      </c>
-      <c r="C223" t="s">
-        <v>125</v>
+        <v>241</v>
+      </c>
+      <c r="C223" s="2">
+        <v>500000</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B224" t="s">
-        <v>361</v>
-      </c>
-      <c r="C224" t="s">
-        <v>173</v>
+        <v>242</v>
+      </c>
+      <c r="C224" s="2">
+        <v>330000</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B225" t="s">
-        <v>362</v>
-      </c>
-      <c r="C225" t="s">
-        <v>125</v>
+        <v>243</v>
+      </c>
+      <c r="C225" s="2">
+        <v>500000</v>
       </c>
       <c r="D225" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B226" t="s">
-        <v>363</v>
-      </c>
-      <c r="C226" t="s">
-        <v>364</v>
+        <v>244</v>
+      </c>
+      <c r="C226" s="2">
+        <v>2700000</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B227" t="s">
-        <v>365</v>
-      </c>
-      <c r="C227" t="s">
-        <v>366</v>
+        <v>245</v>
+      </c>
+      <c r="C227" s="2">
+        <v>2525000</v>
       </c>
       <c r="D227" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>367</v>
-      </c>
-      <c r="C228" t="s">
-        <v>121</v>
+        <v>246</v>
+      </c>
+      <c r="C228" s="2">
+        <v>3000000</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B229" t="s">
-        <v>368</v>
-      </c>
-      <c r="C229" t="s">
-        <v>79</v>
+        <v>247</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1000000</v>
       </c>
       <c r="D229" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>369</v>
-      </c>
-      <c r="C230" t="s">
-        <v>370</v>
+        <v>248</v>
+      </c>
+      <c r="C230" s="2">
+        <v>4750000</v>
       </c>
       <c r="D230" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B231" t="s">
-        <v>371</v>
-      </c>
-      <c r="C231" t="s">
-        <v>350</v>
+        <v>249</v>
+      </c>
+      <c r="C231" s="2">
+        <v>2750000</v>
       </c>
       <c r="D231" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B232" t="s">
-        <v>372</v>
-      </c>
-      <c r="C232" t="s">
-        <v>73</v>
+        <v>250</v>
+      </c>
+      <c r="C232" s="2">
+        <v>325000</v>
       </c>
       <c r="D232" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>373</v>
-      </c>
-      <c r="C233" t="s">
-        <v>374</v>
+        <v>251</v>
+      </c>
+      <c r="C233" s="2">
+        <v>3400000</v>
       </c>
       <c r="D233" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>375</v>
-      </c>
-      <c r="C234" t="s">
-        <v>99</v>
+        <v>252</v>
+      </c>
+      <c r="C234" s="2">
+        <v>312500</v>
       </c>
       <c r="D234" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B235" t="s">
-        <v>376</v>
-      </c>
-      <c r="C235" t="s">
-        <v>173</v>
+        <v>253</v>
+      </c>
+      <c r="C235" s="2">
+        <v>330000</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>377</v>
-      </c>
-      <c r="C236" t="s">
-        <v>57</v>
+        <v>254</v>
+      </c>
+      <c r="C236" s="2">
+        <v>4150000</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>378</v>
-      </c>
-      <c r="C237" t="s">
-        <v>379</v>
+        <v>255</v>
+      </c>
+      <c r="C237" s="2">
+        <v>1750000</v>
       </c>
       <c r="D237" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>380</v>
-      </c>
-      <c r="C238" t="s">
-        <v>23</v>
+        <v>256</v>
+      </c>
+      <c r="C238" s="2">
+        <v>6000000</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>381</v>
-      </c>
-      <c r="C239" t="s">
-        <v>86</v>
+        <v>257</v>
+      </c>
+      <c r="C239" s="2">
+        <v>315000</v>
       </c>
       <c r="D239" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>382</v>
-      </c>
-      <c r="C240" t="s">
-        <v>383</v>
+        <v>258</v>
+      </c>
+      <c r="C240" s="2">
+        <v>365000</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>384</v>
-      </c>
-      <c r="C241" t="s">
-        <v>348</v>
+        <v>259</v>
+      </c>
+      <c r="C241" s="2">
+        <v>450000</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>385</v>
-      </c>
-      <c r="C242" t="s">
-        <v>386</v>
+        <v>260</v>
+      </c>
+      <c r="C242" s="2">
+        <v>8750000</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B243" t="s">
-        <v>387</v>
-      </c>
-      <c r="C243" t="s">
-        <v>46</v>
+        <v>261</v>
+      </c>
+      <c r="C243" s="2">
+        <v>8000000</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>388</v>
-      </c>
-      <c r="C244" t="s">
-        <v>389</v>
+        <v>262</v>
+      </c>
+      <c r="C244" s="2">
+        <v>340000</v>
       </c>
       <c r="D244" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B245" t="s">
-        <v>390</v>
-      </c>
-      <c r="C245" t="s">
-        <v>129</v>
+        <v>263</v>
+      </c>
+      <c r="C245" s="2">
+        <v>2000000</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B246" t="s">
-        <v>391</v>
-      </c>
-      <c r="C246" t="s">
-        <v>73</v>
+        <v>264</v>
+      </c>
+      <c r="C246" s="2">
+        <v>325000</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="B247" t="s">
-        <v>392</v>
-      </c>
-      <c r="C247" t="s">
-        <v>393</v>
+        <v>265</v>
+      </c>
+      <c r="C247" s="2">
+        <v>335000</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B248" t="s">
-        <v>395</v>
-      </c>
-      <c r="C248" t="s">
-        <v>63</v>
+        <v>267</v>
+      </c>
+      <c r="C248" s="2">
+        <v>700000</v>
       </c>
       <c r="D248" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B249" t="s">
-        <v>396</v>
-      </c>
-      <c r="C249" t="s">
-        <v>397</v>
+        <v>268</v>
+      </c>
+      <c r="C249" s="2">
+        <v>445000</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B250" t="s">
-        <v>398</v>
-      </c>
-      <c r="C250" t="s">
-        <v>399</v>
+        <v>269</v>
+      </c>
+      <c r="C250" s="2">
+        <v>8250000</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B251" t="s">
-        <v>400</v>
-      </c>
-      <c r="C251" t="s">
-        <v>86</v>
+        <v>270</v>
+      </c>
+      <c r="C251" s="2">
+        <v>315000</v>
       </c>
       <c r="D251" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B252" t="s">
-        <v>401</v>
-      </c>
-      <c r="C252" t="s">
-        <v>348</v>
+        <v>271</v>
+      </c>
+      <c r="C252" s="2">
+        <v>450000</v>
       </c>
       <c r="D252" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B253" t="s">
-        <v>402</v>
-      </c>
-      <c r="C253" t="s">
-        <v>112</v>
+        <v>272</v>
+      </c>
+      <c r="C253" s="2">
+        <v>375000</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B254" t="s">
-        <v>403</v>
-      </c>
-      <c r="C254" t="s">
-        <v>173</v>
+        <v>273</v>
+      </c>
+      <c r="C254" s="2">
+        <v>330000</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B255" t="s">
-        <v>404</v>
-      </c>
-      <c r="C255" t="s">
-        <v>405</v>
+        <v>274</v>
+      </c>
+      <c r="C255" s="2">
+        <v>1400000</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B256" t="s">
-        <v>406</v>
-      </c>
-      <c r="C256" t="s">
-        <v>407</v>
+        <v>275</v>
+      </c>
+      <c r="C256" s="2">
+        <v>675000</v>
       </c>
       <c r="D256" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>408</v>
-      </c>
-      <c r="C257" t="s">
-        <v>409</v>
+        <v>276</v>
+      </c>
+      <c r="C257" s="2">
+        <v>345000</v>
       </c>
       <c r="D257" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B258" t="s">
-        <v>410</v>
-      </c>
-      <c r="C258" t="s">
-        <v>108</v>
+        <v>277</v>
+      </c>
+      <c r="C258" s="2">
+        <v>4250000</v>
       </c>
       <c r="D258" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B259" t="s">
-        <v>411</v>
-      </c>
-      <c r="C259" t="s">
-        <v>412</v>
+        <v>278</v>
+      </c>
+      <c r="C259" s="2">
+        <v>6250000</v>
       </c>
       <c r="D259" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B260" t="s">
-        <v>413</v>
-      </c>
-      <c r="C260" t="s">
-        <v>414</v>
+        <v>279</v>
+      </c>
+      <c r="C260" s="2">
+        <v>4200000</v>
       </c>
       <c r="D260" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B261" t="s">
-        <v>415</v>
-      </c>
-      <c r="C261" t="s">
-        <v>125</v>
+        <v>280</v>
+      </c>
+      <c r="C261" s="2">
+        <v>500000</v>
       </c>
       <c r="D261" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B262" t="s">
-        <v>416</v>
-      </c>
-      <c r="C262" t="s">
-        <v>173</v>
+        <v>281</v>
+      </c>
+      <c r="C262" s="2">
+        <v>330000</v>
       </c>
       <c r="D262" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>417</v>
-      </c>
-      <c r="C263" t="s">
-        <v>9</v>
+        <v>282</v>
+      </c>
+      <c r="C263" s="2">
+        <v>300000</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>418</v>
-      </c>
-      <c r="C264" t="s">
-        <v>419</v>
+        <v>283</v>
+      </c>
+      <c r="C264" s="2">
+        <v>9000000</v>
       </c>
       <c r="D264" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>420</v>
-      </c>
-      <c r="C265" t="s">
-        <v>73</v>
+        <v>284</v>
+      </c>
+      <c r="C265" s="2">
+        <v>325000</v>
       </c>
       <c r="D265" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>421</v>
-      </c>
-      <c r="C266" t="s">
-        <v>348</v>
+        <v>285</v>
+      </c>
+      <c r="C266" s="2">
+        <v>450000</v>
       </c>
       <c r="D266" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>422</v>
-      </c>
-      <c r="C267" t="s">
-        <v>90</v>
+        <v>286</v>
+      </c>
+      <c r="C267" s="2">
+        <v>320000</v>
       </c>
       <c r="D267" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>423</v>
-      </c>
-      <c r="C268" t="s">
-        <v>9</v>
+        <v>287</v>
+      </c>
+      <c r="C268" s="2">
+        <v>300000</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>424</v>
-      </c>
-      <c r="C269" t="s">
-        <v>30</v>
+        <v>288</v>
+      </c>
+      <c r="C269" s="2">
+        <v>5000000</v>
       </c>
       <c r="D269" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B270" t="s">
-        <v>425</v>
-      </c>
-      <c r="C270" t="s">
-        <v>30</v>
+        <v>289</v>
+      </c>
+      <c r="C270" s="2">
+        <v>5000000</v>
       </c>
       <c r="D270" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B271" t="s">
-        <v>426</v>
-      </c>
-      <c r="C271" t="s">
-        <v>207</v>
+        <v>290</v>
+      </c>
+      <c r="C271" s="2">
+        <v>600000</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B272" t="s">
-        <v>427</v>
-      </c>
-      <c r="C272" t="s">
-        <v>73</v>
+        <v>291</v>
+      </c>
+      <c r="C272" s="2">
+        <v>325000</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="B273" t="s">
-        <v>428</v>
-      </c>
-      <c r="C273" t="s">
-        <v>429</v>
+        <v>292</v>
+      </c>
+      <c r="C273" s="2">
+        <v>575000</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B274" t="s">
-        <v>431</v>
-      </c>
-      <c r="C274" t="s">
-        <v>432</v>
+        <v>294</v>
+      </c>
+      <c r="C274" s="2">
+        <v>3200000</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B275" t="s">
-        <v>433</v>
-      </c>
-      <c r="C275" t="s">
-        <v>199</v>
+        <v>295</v>
+      </c>
+      <c r="C275" s="2">
+        <v>314000</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B276" t="s">
-        <v>434</v>
-      </c>
-      <c r="C276" t="s">
-        <v>73</v>
+        <v>296</v>
+      </c>
+      <c r="C276" s="2">
+        <v>325000</v>
       </c>
       <c r="D276" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B277" t="s">
-        <v>435</v>
-      </c>
-      <c r="C277" t="s">
-        <v>9</v>
+        <v>297</v>
+      </c>
+      <c r="C277" s="2">
+        <v>300000</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B278" t="s">
-        <v>436</v>
-      </c>
-      <c r="C278" t="s">
-        <v>177</v>
+        <v>298</v>
+      </c>
+      <c r="C278" s="2">
+        <v>303000</v>
       </c>
       <c r="D278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B279" t="s">
-        <v>437</v>
-      </c>
-      <c r="C279" t="s">
-        <v>9</v>
+        <v>299</v>
+      </c>
+      <c r="C279" s="2">
+        <v>300000</v>
       </c>
       <c r="D279" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B280" t="s">
-        <v>438</v>
-      </c>
-      <c r="C280" t="s">
-        <v>439</v>
+        <v>300</v>
+      </c>
+      <c r="C280" s="2">
+        <v>2150000</v>
       </c>
       <c r="D280" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B281" t="s">
-        <v>440</v>
-      </c>
-      <c r="C281" t="s">
-        <v>441</v>
+        <v>301</v>
+      </c>
+      <c r="C281" s="2">
+        <v>11850000</v>
       </c>
       <c r="D281" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B282" t="s">
-        <v>442</v>
-      </c>
-      <c r="C282" t="s">
-        <v>9</v>
+        <v>302</v>
+      </c>
+      <c r="C282" s="2">
+        <v>300000</v>
       </c>
       <c r="D282" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B283" t="s">
-        <v>443</v>
-      </c>
-      <c r="C283" t="s">
-        <v>86</v>
+        <v>303</v>
+      </c>
+      <c r="C283" s="2">
+        <v>315000</v>
       </c>
       <c r="D283" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B284" t="s">
-        <v>444</v>
-      </c>
-      <c r="C284" t="s">
-        <v>389</v>
+        <v>304</v>
+      </c>
+      <c r="C284" s="2">
+        <v>340000</v>
       </c>
       <c r="D284" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B285" t="s">
-        <v>445</v>
-      </c>
-      <c r="C285" t="s">
-        <v>106</v>
+        <v>305</v>
+      </c>
+      <c r="C285" s="2">
+        <v>305000</v>
       </c>
       <c r="D285" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B286" t="s">
-        <v>446</v>
-      </c>
-      <c r="C286" t="s">
-        <v>9</v>
+        <v>306</v>
+      </c>
+      <c r="C286" s="2">
+        <v>300000</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B287" t="s">
-        <v>447</v>
-      </c>
-      <c r="C287" t="s">
-        <v>448</v>
+        <v>307</v>
+      </c>
+      <c r="C287" s="2">
+        <v>309000</v>
       </c>
       <c r="D287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B288" t="s">
-        <v>449</v>
-      </c>
-      <c r="C288" t="s">
-        <v>134</v>
+        <v>308</v>
+      </c>
+      <c r="C288" s="2">
+        <v>1700000</v>
       </c>
       <c r="D288" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B289" t="s">
-        <v>450</v>
-      </c>
-      <c r="C289" t="s">
-        <v>451</v>
+        <v>309</v>
+      </c>
+      <c r="C289" s="2">
+        <v>8500000</v>
       </c>
       <c r="D289" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>452</v>
-      </c>
-      <c r="C290" t="s">
-        <v>453</v>
+        <v>310</v>
+      </c>
+      <c r="C290" s="2">
+        <v>2625000</v>
       </c>
       <c r="D290" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>454</v>
-      </c>
-      <c r="C291" t="s">
-        <v>53</v>
+        <v>311</v>
+      </c>
+      <c r="C291" s="2">
+        <v>2500000</v>
       </c>
       <c r="D291" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B292" t="s">
-        <v>455</v>
-      </c>
-      <c r="C292" t="s">
-        <v>227</v>
+        <v>312</v>
+      </c>
+      <c r="C292" s="2">
+        <v>310000</v>
       </c>
       <c r="D292" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>456</v>
-      </c>
-      <c r="C293" t="s">
-        <v>9</v>
+        <v>313</v>
+      </c>
+      <c r="C293" s="2">
+        <v>300000</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>457</v>
-      </c>
-      <c r="C294" t="s">
-        <v>458</v>
+        <v>314</v>
+      </c>
+      <c r="C294" s="2">
+        <v>307000</v>
       </c>
       <c r="D294" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>459</v>
-      </c>
-      <c r="C295" t="s">
-        <v>352</v>
+        <v>315</v>
+      </c>
+      <c r="C295" s="2">
+        <v>4500000</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>460</v>
-      </c>
-      <c r="C296" t="s">
-        <v>106</v>
+        <v>316</v>
+      </c>
+      <c r="C296" s="2">
+        <v>305000</v>
       </c>
       <c r="D296" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B297" t="s">
-        <v>461</v>
-      </c>
-      <c r="C297" t="s">
-        <v>32</v>
+        <v>317</v>
+      </c>
+      <c r="C297" s="2">
+        <v>400000</v>
       </c>
       <c r="D297" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B298" t="s">
-        <v>462</v>
-      </c>
-      <c r="C298" t="s">
-        <v>463</v>
+        <v>318</v>
+      </c>
+      <c r="C298" s="2">
+        <v>360000</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="B299" t="s">
-        <v>464</v>
-      </c>
-      <c r="C299" t="s">
-        <v>189</v>
+        <v>319</v>
+      </c>
+      <c r="C299" s="2">
+        <v>6750000</v>
       </c>
       <c r="D299" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B300" t="s">
-        <v>466</v>
-      </c>
-      <c r="C300" t="s">
-        <v>9</v>
+        <v>321</v>
+      </c>
+      <c r="C300" s="2">
+        <v>300000</v>
       </c>
       <c r="D300" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B301" t="s">
-        <v>467</v>
-      </c>
-      <c r="C301" t="s">
-        <v>46</v>
+        <v>322</v>
+      </c>
+      <c r="C301" s="2">
+        <v>8000000</v>
       </c>
       <c r="D301" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B302" t="s">
-        <v>468</v>
-      </c>
-      <c r="C302" t="s">
-        <v>125</v>
+        <v>323</v>
+      </c>
+      <c r="C302" s="2">
+        <v>500000</v>
       </c>
       <c r="D302" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B303" t="s">
-        <v>469</v>
-      </c>
-      <c r="C303" t="s">
-        <v>470</v>
+        <v>324</v>
+      </c>
+      <c r="C303" s="2">
+        <v>7416667</v>
       </c>
       <c r="D303" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B304" t="s">
-        <v>471</v>
-      </c>
-      <c r="C304" t="s">
-        <v>32</v>
+        <v>325</v>
+      </c>
+      <c r="C304" s="2">
+        <v>400000</v>
       </c>
       <c r="D304" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B305" t="s">
-        <v>472</v>
-      </c>
-      <c r="C305" t="s">
-        <v>473</v>
+        <v>326</v>
+      </c>
+      <c r="C305" s="2">
+        <v>6725000</v>
       </c>
       <c r="D305" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B306" t="s">
-        <v>474</v>
-      </c>
-      <c r="C306" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="C306" s="2">
+        <v>750000</v>
       </c>
       <c r="D306" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B307" t="s">
-        <v>475</v>
-      </c>
-      <c r="C307" t="s">
-        <v>79</v>
+        <v>328</v>
+      </c>
+      <c r="C307" s="2">
+        <v>1000000</v>
       </c>
       <c r="D307" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B308" t="s">
-        <v>476</v>
-      </c>
-      <c r="C308" t="s">
-        <v>75</v>
+        <v>329</v>
+      </c>
+      <c r="C308" s="2">
+        <v>425000</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>477</v>
-      </c>
-      <c r="C309" t="s">
-        <v>478</v>
+        <v>330</v>
+      </c>
+      <c r="C309" s="2">
+        <v>6875000</v>
       </c>
       <c r="D309" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B310" t="s">
-        <v>479</v>
-      </c>
-      <c r="C310" t="s">
-        <v>53</v>
+        <v>331</v>
+      </c>
+      <c r="C310" s="2">
+        <v>2500000</v>
       </c>
       <c r="D310" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B311" t="s">
-        <v>480</v>
-      </c>
-      <c r="C311" t="s">
-        <v>481</v>
+        <v>332</v>
+      </c>
+      <c r="C311" s="2">
+        <v>1800000</v>
       </c>
       <c r="D311" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B312" t="s">
-        <v>482</v>
-      </c>
-      <c r="C312" t="s">
-        <v>207</v>
+        <v>333</v>
+      </c>
+      <c r="C312" s="2">
+        <v>600000</v>
       </c>
       <c r="D312" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B313" t="s">
-        <v>483</v>
-      </c>
-      <c r="C313" t="s">
-        <v>151</v>
+        <v>334</v>
+      </c>
+      <c r="C313" s="2">
+        <v>4000000</v>
       </c>
       <c r="D313" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B314" t="s">
-        <v>484</v>
-      </c>
-      <c r="C314" t="s">
-        <v>71</v>
+        <v>335</v>
+      </c>
+      <c r="C314" s="2">
+        <v>302500</v>
       </c>
       <c r="D314" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B315" t="s">
-        <v>485</v>
-      </c>
-      <c r="C315" t="s">
-        <v>486</v>
+        <v>336</v>
+      </c>
+      <c r="C315" s="2">
+        <v>3150000</v>
       </c>
       <c r="D315" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B316" t="s">
-        <v>487</v>
-      </c>
-      <c r="C316" t="s">
-        <v>73</v>
+        <v>337</v>
+      </c>
+      <c r="C316" s="2">
+        <v>325000</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>488</v>
-      </c>
-      <c r="C317" t="s">
-        <v>313</v>
+        <v>338</v>
+      </c>
+      <c r="C317" s="2">
+        <v>6500000</v>
       </c>
       <c r="D317" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>489</v>
-      </c>
-      <c r="C318" t="s">
-        <v>490</v>
+        <v>339</v>
+      </c>
+      <c r="C318" s="2">
+        <v>3983333</v>
       </c>
       <c r="D318" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B319" t="s">
-        <v>491</v>
-      </c>
-      <c r="C319" t="s">
-        <v>492</v>
+        <v>340</v>
+      </c>
+      <c r="C319" s="2">
+        <v>7700000</v>
       </c>
       <c r="D319" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>493</v>
-      </c>
-      <c r="C320" t="s">
-        <v>494</v>
+        <v>341</v>
+      </c>
+      <c r="C320" s="2">
+        <v>440000</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>495</v>
-      </c>
-      <c r="C321" t="s">
-        <v>271</v>
+        <v>342</v>
+      </c>
+      <c r="C321" s="2">
+        <v>3500000</v>
       </c>
       <c r="D321" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>496</v>
-      </c>
-      <c r="C322" t="s">
-        <v>46</v>
+        <v>343</v>
+      </c>
+      <c r="C322" s="2">
+        <v>8000000</v>
       </c>
       <c r="D322" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B323" t="s">
-        <v>497</v>
-      </c>
-      <c r="C323" t="s">
-        <v>9</v>
+        <v>344</v>
+      </c>
+      <c r="C323" s="2">
+        <v>300000</v>
       </c>
       <c r="D323" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B324" t="s">
-        <v>498</v>
-      </c>
-      <c r="C324" t="s">
-        <v>499</v>
+        <v>345</v>
+      </c>
+      <c r="C324" s="2">
+        <v>4666667</v>
       </c>
       <c r="D324" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B325" t="s">
-        <v>500</v>
-      </c>
-      <c r="C325" t="s">
-        <v>271</v>
+        <v>346</v>
+      </c>
+      <c r="C325" s="2">
+        <v>3500000</v>
       </c>
       <c r="D325" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="B326" t="s">
-        <v>501</v>
-      </c>
-      <c r="C326" t="s">
-        <v>502</v>
+        <v>347</v>
+      </c>
+      <c r="C326" s="2">
+        <v>3300000</v>
       </c>
       <c r="D326" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B327" t="s">
-        <v>504</v>
-      </c>
-      <c r="C327" t="s">
-        <v>328</v>
+        <v>349</v>
+      </c>
+      <c r="C327" s="2">
+        <v>304000</v>
       </c>
       <c r="D327" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B328" t="s">
-        <v>505</v>
-      </c>
-      <c r="C328" t="s">
-        <v>506</v>
+        <v>350</v>
+      </c>
+      <c r="C328" s="2">
+        <v>331000</v>
       </c>
       <c r="D328" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B329" t="s">
-        <v>507</v>
-      </c>
-      <c r="C329" t="s">
-        <v>9</v>
+        <v>351</v>
+      </c>
+      <c r="C329" s="2">
+        <v>300000</v>
       </c>
       <c r="D329" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B330" t="s">
-        <v>508</v>
-      </c>
-      <c r="C330" t="s">
-        <v>509</v>
+        <v>352</v>
+      </c>
+      <c r="C330" s="2">
+        <v>3675000</v>
       </c>
       <c r="D330" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B331" t="s">
-        <v>510</v>
-      </c>
-      <c r="C331" t="s">
-        <v>511</v>
+        <v>353</v>
+      </c>
+      <c r="C331" s="2">
+        <v>1065000</v>
       </c>
       <c r="D331" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B332" t="s">
-        <v>512</v>
-      </c>
-      <c r="C332" t="s">
-        <v>513</v>
+        <v>354</v>
+      </c>
+      <c r="C332" s="2">
+        <v>11666667</v>
       </c>
       <c r="D332" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B333" t="s">
-        <v>514</v>
-      </c>
-      <c r="C333" t="s">
-        <v>196</v>
+        <v>355</v>
+      </c>
+      <c r="C333" s="2">
+        <v>307500</v>
       </c>
       <c r="D333" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B334" t="s">
-        <v>515</v>
-      </c>
-      <c r="C334" t="s">
-        <v>254</v>
+        <v>356</v>
+      </c>
+      <c r="C334" s="2">
+        <v>316000</v>
       </c>
       <c r="D334" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B335" t="s">
-        <v>516</v>
-      </c>
-      <c r="C335" t="s">
-        <v>23</v>
+        <v>357</v>
+      </c>
+      <c r="C335" s="2">
+        <v>6000000</v>
       </c>
       <c r="D335" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B336" t="s">
-        <v>517</v>
-      </c>
-      <c r="C336" t="s">
-        <v>238</v>
+        <v>358</v>
+      </c>
+      <c r="C336" s="2">
+        <v>350000</v>
       </c>
       <c r="D336" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>518</v>
-      </c>
-      <c r="C337" t="s">
-        <v>15</v>
+        <v>359</v>
+      </c>
+      <c r="C337" s="2">
+        <v>750000</v>
       </c>
       <c r="D337" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B338" t="s">
-        <v>519</v>
-      </c>
-      <c r="C338" t="s">
-        <v>379</v>
+        <v>360</v>
+      </c>
+      <c r="C338" s="2">
+        <v>1750000</v>
       </c>
       <c r="D338" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B339" t="s">
-        <v>520</v>
-      </c>
-      <c r="C339" t="s">
-        <v>521</v>
+        <v>361</v>
+      </c>
+      <c r="C339" s="2">
+        <v>1887500</v>
       </c>
       <c r="D339" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B340" t="s">
-        <v>522</v>
-      </c>
-      <c r="C340" t="s">
-        <v>364</v>
+        <v>362</v>
+      </c>
+      <c r="C340" s="2">
+        <v>2700000</v>
       </c>
       <c r="D340" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B341" t="s">
-        <v>523</v>
-      </c>
-      <c r="C341" t="s">
-        <v>125</v>
+        <v>363</v>
+      </c>
+      <c r="C341" s="2">
+        <v>500000</v>
       </c>
       <c r="D341" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B342" t="s">
-        <v>524</v>
-      </c>
-      <c r="C342" t="s">
-        <v>393</v>
+        <v>364</v>
+      </c>
+      <c r="C342" s="2">
+        <v>335000</v>
       </c>
       <c r="D342" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B343" t="s">
-        <v>525</v>
-      </c>
-      <c r="C343" t="s">
-        <v>526</v>
+        <v>365</v>
+      </c>
+      <c r="C343" s="2">
+        <v>2175000</v>
       </c>
       <c r="D343" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B344" t="s">
-        <v>527</v>
-      </c>
-      <c r="C344" t="s">
-        <v>528</v>
+        <v>366</v>
+      </c>
+      <c r="C344" s="2">
+        <v>3216667</v>
       </c>
       <c r="D344" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>529</v>
-      </c>
-      <c r="C345" t="s">
-        <v>530</v>
+        <v>367</v>
+      </c>
+      <c r="C345" s="2">
+        <v>334500</v>
       </c>
       <c r="D345" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>531</v>
-      </c>
-      <c r="C346" t="s">
-        <v>532</v>
+        <v>368</v>
+      </c>
+      <c r="C346" s="2">
+        <v>2650000</v>
       </c>
       <c r="D346" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>533</v>
-      </c>
-      <c r="C347" t="s">
-        <v>9</v>
+        <v>369</v>
+      </c>
+      <c r="C347" s="2">
+        <v>300000</v>
       </c>
       <c r="D347" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>534</v>
-      </c>
-      <c r="C348" t="s">
-        <v>535</v>
+        <v>370</v>
+      </c>
+      <c r="C348" s="2">
+        <v>322000</v>
       </c>
       <c r="D348" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>536</v>
-      </c>
-      <c r="C349" t="s">
-        <v>134</v>
+        <v>371</v>
+      </c>
+      <c r="C349" s="2">
+        <v>1700000</v>
       </c>
       <c r="D349" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>537</v>
-      </c>
-      <c r="C350" t="s">
-        <v>279</v>
+        <v>372</v>
+      </c>
+      <c r="C350" s="2">
+        <v>1200000</v>
       </c>
       <c r="D350" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>538</v>
-      </c>
-      <c r="C351" t="s">
-        <v>168</v>
+        <v>373</v>
+      </c>
+      <c r="C351" s="2">
+        <v>5125000</v>
       </c>
       <c r="D351" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
       <c r="B352" t="s">
-        <v>539</v>
-      </c>
-      <c r="C352" t="s">
-        <v>79</v>
+        <v>374</v>
+      </c>
+      <c r="C352" s="2">
+        <v>1000000</v>
       </c>
       <c r="D352" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B353" t="s">
-        <v>541</v>
-      </c>
-      <c r="C353" t="s">
-        <v>71</v>
+        <v>376</v>
+      </c>
+      <c r="C353" s="2">
+        <v>302500</v>
       </c>
       <c r="D353" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B354" t="s">
-        <v>542</v>
-      </c>
-      <c r="C354" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="C354" s="2">
+        <v>300000</v>
       </c>
       <c r="D354" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B355" t="s">
-        <v>543</v>
-      </c>
-      <c r="C355" t="s">
-        <v>6</v>
+        <v>378</v>
+      </c>
+      <c r="C355" s="2">
+        <v>900000</v>
       </c>
       <c r="D355" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B356" t="s">
-        <v>544</v>
-      </c>
-      <c r="C356" t="s">
-        <v>545</v>
+        <v>379</v>
+      </c>
+      <c r="C356" s="2">
+        <v>1837500</v>
       </c>
       <c r="D356" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B357" t="s">
-        <v>546</v>
-      </c>
-      <c r="C357" t="s">
-        <v>547</v>
+        <v>380</v>
+      </c>
+      <c r="C357" s="2">
+        <v>9150000</v>
       </c>
       <c r="D357" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B358" t="s">
-        <v>548</v>
-      </c>
-      <c r="C358" t="s">
-        <v>207</v>
+        <v>381</v>
+      </c>
+      <c r="C358" s="2">
+        <v>600000</v>
       </c>
       <c r="D358" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B359" t="s">
-        <v>549</v>
-      </c>
-      <c r="C359" t="s">
-        <v>9</v>
+        <v>382</v>
+      </c>
+      <c r="C359" s="2">
+        <v>300000</v>
       </c>
       <c r="D359" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B360" t="s">
-        <v>550</v>
-      </c>
-      <c r="C360" t="s">
-        <v>79</v>
+        <v>383</v>
+      </c>
+      <c r="C360" s="2">
+        <v>1000000</v>
       </c>
       <c r="D360" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B361" t="s">
-        <v>551</v>
-      </c>
-      <c r="C361" t="s">
-        <v>38</v>
+        <v>384</v>
+      </c>
+      <c r="C361" s="2">
+        <v>13000000</v>
       </c>
       <c r="D361" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B362" t="s">
-        <v>552</v>
-      </c>
-      <c r="C362" t="s">
-        <v>15</v>
+        <v>385</v>
+      </c>
+      <c r="C362" s="2">
+        <v>750000</v>
       </c>
       <c r="D362" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B363" t="s">
-        <v>553</v>
-      </c>
-      <c r="C363" t="s">
-        <v>294</v>
+        <v>386</v>
+      </c>
+      <c r="C363" s="2">
+        <v>7000000</v>
       </c>
       <c r="D363" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B364" t="s">
-        <v>554</v>
-      </c>
-      <c r="C364" t="s">
-        <v>15</v>
+        <v>387</v>
+      </c>
+      <c r="C364" s="2">
+        <v>750000</v>
       </c>
       <c r="D364" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B365" t="s">
-        <v>555</v>
-      </c>
-      <c r="C365" t="s">
-        <v>494</v>
+        <v>388</v>
+      </c>
+      <c r="C365" s="2">
+        <v>440000</v>
       </c>
       <c r="D365" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B366" t="s">
-        <v>556</v>
-      </c>
-      <c r="C366" t="s">
-        <v>71</v>
+        <v>389</v>
+      </c>
+      <c r="C366" s="2">
+        <v>302500</v>
       </c>
       <c r="D366" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B367" t="s">
-        <v>557</v>
-      </c>
-      <c r="C367" t="s">
-        <v>558</v>
+        <v>390</v>
+      </c>
+      <c r="C367" s="2">
+        <v>327500</v>
       </c>
       <c r="D367" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B368" t="s">
-        <v>559</v>
-      </c>
-      <c r="C368" t="s">
-        <v>35</v>
+        <v>391</v>
+      </c>
+      <c r="C368" s="2">
+        <v>550000</v>
       </c>
       <c r="D368" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B369" t="s">
-        <v>560</v>
-      </c>
-      <c r="C369" t="s">
-        <v>419</v>
+        <v>392</v>
+      </c>
+      <c r="C369" s="2">
+        <v>9000000</v>
       </c>
       <c r="D369" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B370" t="s">
-        <v>561</v>
-      </c>
-      <c r="C370" t="s">
-        <v>38</v>
+        <v>393</v>
+      </c>
+      <c r="C370" s="2">
+        <v>13000000</v>
       </c>
       <c r="D370" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B371" t="s">
-        <v>562</v>
-      </c>
-      <c r="C371" t="s">
-        <v>563</v>
+        <v>394</v>
+      </c>
+      <c r="C371" s="2">
+        <v>1300000</v>
       </c>
       <c r="D371" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>564</v>
-      </c>
-      <c r="C372" t="s">
-        <v>59</v>
+        <v>395</v>
+      </c>
+      <c r="C372" s="2">
+        <v>3250000</v>
       </c>
       <c r="D372" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>565</v>
-      </c>
-      <c r="C373" t="s">
-        <v>566</v>
+        <v>396</v>
+      </c>
+      <c r="C373" s="2">
+        <v>22000000</v>
       </c>
       <c r="D373" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B374" t="s">
-        <v>567</v>
-      </c>
-      <c r="C374" t="s">
-        <v>207</v>
+        <v>397</v>
+      </c>
+      <c r="C374" s="2">
+        <v>600000</v>
       </c>
       <c r="D374" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>568</v>
-      </c>
-      <c r="C375" t="s">
-        <v>15</v>
+        <v>398</v>
+      </c>
+      <c r="C375" s="2">
+        <v>750000</v>
       </c>
       <c r="D375" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>569</v>
-      </c>
-      <c r="C376" t="s">
-        <v>563</v>
+        <v>399</v>
+      </c>
+      <c r="C376" s="2">
+        <v>1300000</v>
       </c>
       <c r="D376" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>570</v>
-      </c>
-      <c r="C377" t="s">
-        <v>352</v>
+        <v>400</v>
+      </c>
+      <c r="C377" s="2">
+        <v>4500000</v>
       </c>
       <c r="D377" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>571</v>
-      </c>
-      <c r="C378" t="s">
-        <v>53</v>
+        <v>401</v>
+      </c>
+      <c r="C378" s="2">
+        <v>2500000</v>
       </c>
       <c r="D378" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B379" t="s">
-        <v>572</v>
-      </c>
-      <c r="C379" t="s">
-        <v>53</v>
+        <v>402</v>
+      </c>
+      <c r="C379" s="2">
+        <v>2500000</v>
       </c>
       <c r="D379" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B380" t="s">
-        <v>573</v>
-      </c>
-      <c r="C380" t="s">
-        <v>65</v>
+        <v>403</v>
+      </c>
+      <c r="C380" s="2">
+        <v>1500000</v>
       </c>
       <c r="D380" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B381" t="s">
-        <v>574</v>
-      </c>
-      <c r="C381" t="s">
-        <v>575</v>
+        <v>404</v>
+      </c>
+      <c r="C381" s="2">
+        <v>415000</v>
       </c>
       <c r="D381" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="B382" t="s">
-        <v>576</v>
-      </c>
-      <c r="C382" t="s">
-        <v>577</v>
+        <v>405</v>
+      </c>
+      <c r="C382" s="2">
+        <v>3366667</v>
       </c>
       <c r="D382" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D382"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>ADDRESS(1,1,1,,data!G5)</f>
+        <v>'2524992,08136483'!$A$1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>ADDRESS(2,1,,,data!G6)</f>
+        <v>'22000000'!$A$2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>